--- a/TemperatureData/St.Albans-S/0502_2024.xlsx
+++ b/TemperatureData/St.Albans-S/0502_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/St.Albans-S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.Albans-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E842417C-0D9C-4A89-B473-131EEABB0B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0529CD28-25B5-445C-9D17-93A4DAB5FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{3C80B82A-3F2E-4A6A-A0D1-6DC57FEB839E}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3C80B82A-3F2E-4A6A-A0D1-6DC57FEB839E}"/>
   </bookViews>
   <sheets>
     <sheet name="0502_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Plot Title: St. Albans - S</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422125)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t># St. Albans - S</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>#Water was dried up when logger was collected</t>
+  </si>
+  <si>
+    <t>#All data after retrieval date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -933,9 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E90345-4873-4E2B-9EB3-3EB20B83A810}">
-  <dimension ref="A1:I5701"/>
+  <dimension ref="A1:I5667"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5660" workbookViewId="0">
+      <selection activeCell="C5693" sqref="C5693"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -80286,437 +80288,6 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5668" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5668">
-        <v>5666</v>
-      </c>
-      <c r="B5668" s="1">
-        <v>45509.510416666664</v>
-      </c>
-      <c r="C5668">
-        <v>77.224999999999994</v>
-      </c>
-      <c r="D5668">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5669" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5669">
-        <v>5667</v>
-      </c>
-      <c r="B5669" s="1">
-        <v>45509.520833333336</v>
-      </c>
-      <c r="C5669">
-        <v>76.528000000000006</v>
-      </c>
-      <c r="D5669">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5670" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5670">
-        <v>5668</v>
-      </c>
-      <c r="B5670" s="1">
-        <v>45509.53125</v>
-      </c>
-      <c r="C5670">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5670">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5671" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5671">
-        <v>5669</v>
-      </c>
-      <c r="B5671" s="1">
-        <v>45509.541666666664</v>
-      </c>
-      <c r="C5671">
-        <v>74.619</v>
-      </c>
-      <c r="D5671">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5672" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5672">
-        <v>5670</v>
-      </c>
-      <c r="B5672" s="1">
-        <v>45509.552083333336</v>
-      </c>
-      <c r="C5672">
-        <v>76.703000000000003</v>
-      </c>
-      <c r="D5672">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5673" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5673">
-        <v>5671</v>
-      </c>
-      <c r="B5673" s="1">
-        <v>45509.5625</v>
-      </c>
-      <c r="C5673">
-        <v>79.852999999999994</v>
-      </c>
-      <c r="D5673">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5674" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5674">
-        <v>5672</v>
-      </c>
-      <c r="B5674" s="1">
-        <v>45509.572916666664</v>
-      </c>
-      <c r="C5674">
-        <v>80.382000000000005</v>
-      </c>
-      <c r="D5674">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5675" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5675">
-        <v>5673</v>
-      </c>
-      <c r="B5675" s="1">
-        <v>45509.583333333336</v>
-      </c>
-      <c r="C5675">
-        <v>80.734999999999999</v>
-      </c>
-      <c r="D5675">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5676" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5676">
-        <v>5674</v>
-      </c>
-      <c r="B5676" s="1">
-        <v>45509.59375</v>
-      </c>
-      <c r="C5676">
-        <v>81.09</v>
-      </c>
-      <c r="D5676">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5677" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5677">
-        <v>5675</v>
-      </c>
-      <c r="B5677" s="1">
-        <v>45509.604166666664</v>
-      </c>
-      <c r="C5677">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D5677">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5678" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5678">
-        <v>5676</v>
-      </c>
-      <c r="B5678" s="1">
-        <v>45509.614583333336</v>
-      </c>
-      <c r="C5678">
-        <v>81.09</v>
-      </c>
-      <c r="D5678">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5679" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5679">
-        <v>5677</v>
-      </c>
-      <c r="B5679" s="1">
-        <v>45509.625</v>
-      </c>
-      <c r="C5679">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5679">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5680" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5680">
-        <v>5678</v>
-      </c>
-      <c r="B5680" s="1">
-        <v>45509.635416666664</v>
-      </c>
-      <c r="C5680">
-        <v>76.180999999999997</v>
-      </c>
-      <c r="D5680">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5681" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5681">
-        <v>5679</v>
-      </c>
-      <c r="B5681" s="1">
-        <v>45509.645833333336</v>
-      </c>
-      <c r="C5681">
-        <v>75.138999999999996</v>
-      </c>
-      <c r="D5681">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5682" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5682">
-        <v>5680</v>
-      </c>
-      <c r="B5682" s="1">
-        <v>45509.65625</v>
-      </c>
-      <c r="C5682">
-        <v>77.224999999999994</v>
-      </c>
-      <c r="D5682">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5683" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5683">
-        <v>5681</v>
-      </c>
-      <c r="B5683" s="1">
-        <v>45509.666666666664</v>
-      </c>
-      <c r="C5683">
-        <v>78.8</v>
-      </c>
-      <c r="D5683">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5684" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5684">
-        <v>5682</v>
-      </c>
-      <c r="B5684" s="1">
-        <v>45509.677083333336</v>
-      </c>
-      <c r="C5684">
-        <v>79.501999999999995</v>
-      </c>
-      <c r="D5684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5685" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5685">
-        <v>5683</v>
-      </c>
-      <c r="B5685" s="1">
-        <v>45509.68409722222</v>
-      </c>
-      <c r="E5685" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5686" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5686">
-        <v>5684</v>
-      </c>
-      <c r="B5686" s="1">
-        <v>45509.684374999997</v>
-      </c>
-      <c r="F5686" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5687" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5687">
-        <v>5685</v>
-      </c>
-      <c r="B5687" s="1">
-        <v>45509.684467592589</v>
-      </c>
-      <c r="E5687" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5688" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5688">
-        <v>5686</v>
-      </c>
-      <c r="B5688" s="1">
-        <v>45509.684629629628</v>
-      </c>
-      <c r="F5688" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5689" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5689">
-        <v>5687</v>
-      </c>
-      <c r="B5689" s="1">
-        <v>45509.684687499997</v>
-      </c>
-      <c r="E5689" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5690" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5690">
-        <v>5688</v>
-      </c>
-      <c r="B5690" s="1">
-        <v>45509.685173611113</v>
-      </c>
-      <c r="F5690" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5691" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5691">
-        <v>5689</v>
-      </c>
-      <c r="B5691" s="1">
-        <v>45509.685196759259</v>
-      </c>
-      <c r="E5691" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5692" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5692">
-        <v>5690</v>
-      </c>
-      <c r="B5692" s="1">
-        <v>45509.685231481482</v>
-      </c>
-      <c r="G5692" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5693" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5693">
-        <v>5691</v>
-      </c>
-      <c r="B5693" s="1">
-        <v>45509.685289351852</v>
-      </c>
-      <c r="F5693" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5694" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5694">
-        <v>5692</v>
-      </c>
-      <c r="B5694" s="1">
-        <v>45509.685381944444</v>
-      </c>
-      <c r="E5694" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5695" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5695">
-        <v>5693</v>
-      </c>
-      <c r="B5695" s="1">
-        <v>45509.685555555552</v>
-      </c>
-      <c r="F5695" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5696" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5696">
-        <v>5694</v>
-      </c>
-      <c r="B5696" s="1">
-        <v>45509.685624999998</v>
-      </c>
-      <c r="E5696" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5697" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5697">
-        <v>5695</v>
-      </c>
-      <c r="B5697" s="1">
-        <v>45509.685763888891</v>
-      </c>
-      <c r="F5697" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5698" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5698">
-        <v>5696</v>
-      </c>
-      <c r="B5698" s="1">
-        <v>45509.685983796298</v>
-      </c>
-      <c r="E5698" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5699" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5699">
-        <v>5697</v>
-      </c>
-      <c r="B5699" s="1">
-        <v>45509.686354166668</v>
-      </c>
-      <c r="F5699" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5700" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5700">
-        <v>5698</v>
-      </c>
-      <c r="B5700" s="1">
-        <v>45509.68650462963</v>
-      </c>
-      <c r="E5700" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5700" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5701" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5701">
-        <v>5699</v>
-      </c>
-      <c r="B5701" s="1">
-        <v>45509.686631944445</v>
-      </c>
-      <c r="H5701" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5701" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80724,41 +80295,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977527FA-6202-486B-9A98-751FFC880D4A}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -80995,15 +80571,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -81014,14 +80581,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EE0332-BC6B-4D12-AE52-7372D20C74E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EE0332-BC6B-4D12-AE52-7372D20C74E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A68142-555E-4361-827E-54124E2579B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{460780E0-0008-44F3-AEF7-79138F41678E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{460780E0-0008-44F3-AEF7-79138F41678E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A68142-555E-4361-827E-54124E2579B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>